--- a/observations/orbit_plans/mtp085/nomad_mtp085_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp085/nomad_mtp085_plan_generic.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp085\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15851F1-68B1-4BBC-B5C0-D87B6FB1760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFFFBC0-2267-4EBB-932F-18EFA3531CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="567">
   <si>
     <t>#orbitType</t>
   </si>
@@ -80,10 +67,10 @@
     <t xml:space="preserve">&amp;LST=15.7hrs; &amp;Angle=56; </t>
   </si>
   <si>
-    <t>irIngress</t>
-  </si>
-  <si>
-    <t>irEgress</t>
+    <t>6SUBD CO #6</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #19</t>
   </si>
   <si>
     <t>2024 SEP 28 17:31:00</t>
@@ -92,6 +79,9 @@
     <t>2024 SEP 28 19:28:54</t>
   </si>
   <si>
+    <t>6SUBD CO2 CO #27</t>
+  </si>
+  <si>
     <t>2024 SEP 28 21:26:51</t>
   </si>
   <si>
@@ -107,6 +97,12 @@
     <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
   </si>
   <si>
+    <t>6SUBD CO2 CO #29</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #24</t>
+  </si>
+  <si>
     <t>2024 SEP 29 01:22:47</t>
   </si>
   <si>
@@ -119,6 +115,12 @@
     <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
   </si>
   <si>
+    <t>CO2 Fullscan Fast #5</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #13</t>
+  </si>
+  <si>
     <t>2024 SEP 29 05:18:34</t>
   </si>
   <si>
@@ -131,12 +133,21 @@
     <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=54; </t>
   </si>
   <si>
+    <t>6SUBD Nominal #52</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #23</t>
+  </si>
+  <si>
     <t>2024 SEP 29 09:14:23</t>
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
   </si>
   <si>
+    <t>uvisOnlyNightside</t>
+  </si>
+  <si>
     <t>2024 SEP 29 11:12:21</t>
   </si>
   <si>
@@ -146,9 +157,15 @@
     <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=54; </t>
   </si>
   <si>
+    <t>CH4 3SUBD 01</t>
+  </si>
+  <si>
     <t>2024 SEP 29 15:08:15</t>
   </si>
   <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
     <t>2024 SEP 29 17:06:08</t>
   </si>
   <si>
@@ -158,12 +175,24 @@
     <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=53; </t>
   </si>
   <si>
+    <t>CO2 Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #11</t>
+  </si>
+  <si>
     <t>2024 SEP 29 21:01:56</t>
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
   </si>
   <si>
+    <t>6SUBD CO2 CO #34</t>
+  </si>
+  <si>
+    <t>Fullscan fast step4 all #1</t>
+  </si>
+  <si>
     <t>2024 SEP 29 22:59:54</t>
   </si>
   <si>
@@ -176,18 +205,33 @@
     <t>2024 SEP 30 02:55:49</t>
   </si>
   <si>
+    <t>6SUBD CO2 H2O #14</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O CO #15</t>
+  </si>
+  <si>
     <t>2024 SEP 30 04:53:41</t>
   </si>
   <si>
     <t>2024 SEP 30 06:51:33</t>
   </si>
   <si>
+    <t>6SUBD Nominal #1</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CH4 #2</t>
+  </si>
+  <si>
     <t>2024 SEP 30 08:49:28</t>
   </si>
   <si>
     <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=51; </t>
   </si>
   <si>
+    <t>Ice CO 2SUBD #2</t>
+  </si>
+  <si>
     <t>2024 SEP 30 10:47:25</t>
   </si>
   <si>
@@ -206,12 +250,18 @@
     <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:PAVONIS MONS; &amp;mroOverlap; </t>
   </si>
   <si>
+    <t>6SUBD Nominal #45</t>
+  </si>
+  <si>
     <t>2024 SEP 30 18:39:05</t>
   </si>
   <si>
     <t>2024 SEP 30 20:36:59</t>
   </si>
   <si>
+    <t>Fullscan fast step5 all #1</t>
+  </si>
+  <si>
     <t>2024 SEP 30 22:34:56</t>
   </si>
   <si>
@@ -221,12 +271,24 @@
     <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=49; </t>
   </si>
   <si>
+    <t>Surface 3SUBD #3</t>
+  </si>
+  <si>
     <t>2024 OCT 01 02:30:52</t>
   </si>
   <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
     <t>2024 OCT 01 04:28:46</t>
   </si>
   <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #54</t>
+  </si>
+  <si>
     <t>2024 OCT 01 06:26:37</t>
   </si>
   <si>
@@ -236,6 +298,9 @@
     <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=48; </t>
   </si>
   <si>
+    <t>6SUBD Nominal #48</t>
+  </si>
+  <si>
     <t>2024 OCT 01 10:22:28</t>
   </si>
   <si>
@@ -248,6 +313,12 @@
     <t>2024 OCT 01 14:18:22</t>
   </si>
   <si>
+    <t>179 only #2</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #1</t>
+  </si>
+  <si>
     <t>2024 OCT 01 16:16:18</t>
   </si>
   <si>
@@ -266,6 +337,9 @@
     <t>2024 OCT 01 22:09:59</t>
   </si>
   <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
     <t>2024 OCT 02 00:07:57</t>
   </si>
   <si>
@@ -281,18 +355,27 @@
     <t>2024 OCT 02 04:03:50</t>
   </si>
   <si>
+    <t>Surface Ice 3SUBD #2</t>
+  </si>
+  <si>
     <t>2024 OCT 02 06:01:42</t>
   </si>
   <si>
     <t>2024 OCT 02 07:59:34</t>
   </si>
   <si>
+    <t>All Fullscan Slow #2</t>
+  </si>
+  <si>
     <t>2024 OCT 02 09:57:30</t>
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
   </si>
   <si>
+    <t>Dust H2O 01</t>
+  </si>
+  <si>
     <t>2024 OCT 02 11:55:27</t>
   </si>
   <si>
@@ -317,9 +400,15 @@
     <t>2024 OCT 02 21:45:01</t>
   </si>
   <si>
+    <t>6SUBD Nominal #51</t>
+  </si>
+  <si>
     <t>2024 OCT 02 23:42:58</t>
   </si>
   <si>
+    <t>Ice H2O 2SUBD #1</t>
+  </si>
+  <si>
     <t>2024 OCT 03 01:40:56</t>
   </si>
   <si>
@@ -329,6 +418,9 @@
     <t>2024 OCT 03 03:38:53</t>
   </si>
   <si>
+    <t>6SUBD CO2 CO #28</t>
+  </si>
+  <si>
     <t>2024 OCT 03 05:36:46</t>
   </si>
   <si>
@@ -371,6 +463,12 @@
     <t>2024 OCT 03 21:20:03</t>
   </si>
   <si>
+    <t>6SUBD Nominal #42</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #7</t>
+  </si>
+  <si>
     <t>2024 OCT 03 23:18:00</t>
   </si>
   <si>
@@ -383,6 +481,9 @@
     <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
   </si>
   <si>
+    <t>HCL #10</t>
+  </si>
+  <si>
     <t>2024 OCT 04 05:11:50</t>
   </si>
   <si>
@@ -431,6 +532,12 @@
     <t xml:space="preserve">&amp;nomadDeimos; </t>
   </si>
   <si>
+    <t>6SUBD CO #2</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #25</t>
+  </si>
+  <si>
     <t>2024 OCT 04 22:53:02</t>
   </si>
   <si>
@@ -440,6 +547,12 @@
     <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
   </si>
   <si>
+    <t>6SUBD CH4 H2O #1</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #13</t>
+  </si>
+  <si>
     <t>2024 OCT 05 02:48:58</t>
   </si>
   <si>
@@ -452,6 +565,9 @@
     <t>2024 OCT 05 08:42:39</t>
   </si>
   <si>
+    <t>6SUBD Nominal #53</t>
+  </si>
+  <si>
     <t>2024 OCT 05 10:40:34</t>
   </si>
   <si>
@@ -494,6 +610,9 @@
     <t>2024 OCT 06 02:23:59</t>
   </si>
   <si>
+    <t>Ice CH4 2SUBD #1</t>
+  </si>
+  <si>
     <t>2024 OCT 06 04:21:56</t>
   </si>
   <si>
@@ -515,6 +634,9 @@
     <t>2024 OCT 06 12:13:32</t>
   </si>
   <si>
+    <t>6SUBD Nom CO #6</t>
+  </si>
+  <si>
     <t>2024 OCT 06 14:11:30</t>
   </si>
   <si>
@@ -539,6 +661,9 @@
     <t xml:space="preserve">&amp;LST=14.1hrs; &amp;Angle=32; </t>
   </si>
   <si>
+    <t>6SUBD CO #1</t>
+  </si>
+  <si>
     <t>2024 OCT 07 00:01:04</t>
   </si>
   <si>
@@ -587,6 +712,9 @@
     <t xml:space="preserve">&amp;LST=13.9hrs; &amp;Angle=29; </t>
   </si>
   <si>
+    <t>Surface Ice 6SUBD 01</t>
+  </si>
+  <si>
     <t>2024 OCT 07 21:38:10</t>
   </si>
   <si>
@@ -677,6 +805,9 @@
     <t xml:space="preserve">&amp;LST=13.6hrs; &amp;Angle=24; </t>
   </si>
   <si>
+    <t>6SUBD CO #3</t>
+  </si>
+  <si>
     <t>2024 OCT 09 18:50:24</t>
   </si>
   <si>
@@ -710,6 +841,9 @@
     <t>2024 OCT 10 06:37:56</t>
   </si>
   <si>
+    <t>6SUBD Nominal #11</t>
+  </si>
+  <si>
     <t>2024 OCT 10 08:35:49</t>
   </si>
   <si>
@@ -731,9 +865,6 @@
     <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
   </si>
   <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
     <t>2024 OCT 10 16:27:29</t>
   </si>
   <si>
@@ -770,6 +901,9 @@
     <t>2024 OCT 11 06:12:57</t>
   </si>
   <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
     <t>2024 OCT 11 08:10:52</t>
   </si>
   <si>
@@ -785,6 +919,9 @@
     <t xml:space="preserve">&amp;LST=13.2hrs; &amp;Angle=18; </t>
   </si>
   <si>
+    <t>6SUBD CO2 #21</t>
+  </si>
+  <si>
     <t>2024 OCT 11 14:04:32</t>
   </si>
   <si>
@@ -866,6 +1003,9 @@
     <t>2024 OCT 13 03:25:01</t>
   </si>
   <si>
+    <t>LNO Occultation Fullscan Fast #2</t>
+  </si>
+  <si>
     <t>2024 OCT 13 05:23:00</t>
   </si>
   <si>
@@ -893,6 +1033,9 @@
     <t>2024 OCT 13 17:10:30</t>
   </si>
   <si>
+    <t>CO2 Fullscan Fast #4</t>
+  </si>
+  <si>
     <t>2024 OCT 13 19:08:26</t>
   </si>
   <si>
@@ -914,6 +1057,9 @@
     <t xml:space="preserve">&amp;LST=12.7hrs; &amp;Angle=11; </t>
   </si>
   <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
     <t>2024 OCT 14 03:00:04</t>
   </si>
   <si>
@@ -986,6 +1132,9 @@
     <t>2024 OCT 15 10:26:51</t>
   </si>
   <si>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
     <t>2024 OCT 15 12:24:43</t>
   </si>
   <si>
@@ -1070,6 +1219,9 @@
     <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=2; </t>
   </si>
   <si>
+    <t>Surface Ice 4SUBD 01</t>
+  </si>
+  <si>
     <t>2024 OCT 17 05:41:05</t>
   </si>
   <si>
@@ -1082,6 +1234,9 @@
     <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=1; </t>
   </si>
   <si>
+    <t>CH4 CO 2SUBD #3</t>
+  </si>
+  <si>
     <t>2024 OCT 17 11:34:52</t>
   </si>
   <si>
@@ -1130,7 +1285,7 @@
     <t>2024 OCT 18 13:07:48</t>
   </si>
   <si>
-    <t>uvisLimb</t>
+    <t>uvisOnlyLimb</t>
   </si>
   <si>
     <t>2024 OCT 18 15:05:42</t>
@@ -1145,6 +1300,9 @@
     <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=2; </t>
   </si>
   <si>
+    <t>6SUBD Nom CO2 #1</t>
+  </si>
+  <si>
     <t>2024 OCT 18 19:01:35</t>
   </si>
   <si>
@@ -1205,6 +1363,9 @@
     <t>2024 OCT 19 22:32:31</t>
   </si>
   <si>
+    <t>Surface Ice 3SUBD #3</t>
+  </si>
+  <si>
     <t>2024 OCT 20 00:30:24</t>
   </si>
   <si>
@@ -1250,6 +1411,9 @@
     <t>2024 OCT 20 20:09:37</t>
   </si>
   <si>
+    <t>H2O CO 3SUBD #2</t>
+  </si>
+  <si>
     <t>2024 OCT 20 22:07:34</t>
   </si>
   <si>
@@ -1340,6 +1504,9 @@
     <t>2024 OCT 22 13:26:01</t>
   </si>
   <si>
+    <t>Nominal 4SUBD 01</t>
+  </si>
+  <si>
     <t>2024 OCT 22 15:23:53</t>
   </si>
   <si>
@@ -1475,6 +1642,9 @@
     <t>2024 OCT 25 02:21:42</t>
   </si>
   <si>
+    <t>CH4 H2O 2SUBD 01</t>
+  </si>
+  <si>
     <t>2024 OCT 25 04:19:35</t>
   </si>
   <si>
@@ -1547,7 +1717,10 @@
     <t>2024 OCT 26 11:46:29</t>
   </si>
   <si>
-    <t>CO2 Fullscan Fast #5</t>
+    <t>UVIS OFF</t>
+  </si>
+  <si>
+    <t>irOFF</t>
   </si>
 </sst>
 </file>
@@ -1563,18 +1736,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1589,9 +1756,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,9 +1776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1650,7 +1816,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1684,6 +1850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1718,9 +1885,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1896,24 +2064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2022,20 +2179,20 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
@@ -2043,10 +2200,10 @@
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2054,16 +2211,16 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2071,19 +2228,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -2092,10 +2249,10 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2106,10 +2263,10 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2117,19 +2274,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -2138,10 +2295,10 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2152,10 +2309,10 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2163,19 +2320,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -2184,27 +2341,27 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
         <v>34</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2215,10 +2372,10 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2226,16 +2383,16 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2243,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -2255,10 +2412,10 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2269,10 +2426,10 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2280,19 +2437,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -2301,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2312,19 +2469,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -2333,10 +2490,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2347,10 +2504,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2361,10 +2518,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2372,19 +2529,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -2393,10 +2550,10 @@
         <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2407,10 +2564,10 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2418,19 +2575,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -2439,10 +2596,10 @@
         <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2450,16 +2607,16 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2470,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2484,10 +2641,10 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2495,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -2507,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2518,19 +2675,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -2539,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2553,10 +2710,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2564,19 +2721,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -2585,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2599,10 +2756,10 @@
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2610,16 +2767,16 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2627,19 +2784,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
@@ -2648,10 +2805,10 @@
         <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2659,19 +2816,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -2680,10 +2837,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2694,10 +2851,10 @@
         <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2705,19 +2862,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
         <v>6</v>
@@ -2726,27 +2883,27 @@
         <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="M36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>7</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>69</v>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>94</v>
+      </c>
+      <c r="M37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2757,10 +2914,10 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2768,19 +2925,19 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
@@ -2789,10 +2946,10 @@
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="M39" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2800,19 +2957,19 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="M40" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2820,10 +2977,10 @@
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2834,10 +2991,10 @@
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2845,19 +3002,19 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -2866,10 +3023,10 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2880,10 +3037,10 @@
         <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="M44" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2891,19 +3048,19 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
@@ -2912,10 +3069,10 @@
         <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2923,16 +3080,16 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2943,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2954,19 +3111,19 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -2975,10 +3132,10 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M48" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2986,19 +3143,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
         <v>6</v>
@@ -3007,10 +3164,10 @@
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M49" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3021,10 +3178,10 @@
         <v>8</v>
       </c>
       <c r="L50" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3035,10 +3192,10 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M51" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3046,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -3058,10 +3215,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3072,10 +3229,10 @@
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="M53" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3086,10 +3243,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="M54" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3097,19 +3254,19 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
         <v>6</v>
@@ -3118,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3129,16 +3286,16 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="I56" t="s">
         <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M56" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -3146,19 +3303,19 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
@@ -3167,10 +3324,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3178,19 +3335,19 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
@@ -3199,10 +3356,10 @@
         <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3213,10 +3370,10 @@
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3227,10 +3384,10 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3238,19 +3395,19 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
         <v>6</v>
@@ -3259,10 +3416,10 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="M61" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3273,10 +3430,10 @@
         <v>8</v>
       </c>
       <c r="L62" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="M62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3284,13 +3441,13 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="M63" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3298,19 +3455,19 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
@@ -3319,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="L64" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3330,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -3342,10 +3499,10 @@
         <v>8</v>
       </c>
       <c r="L65" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3353,16 +3510,16 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M66" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3370,19 +3527,19 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
@@ -3391,10 +3548,10 @@
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3405,10 +3562,10 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3419,10 +3576,10 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="M69" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3430,19 +3587,19 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
@@ -3451,10 +3608,10 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="M70" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3462,19 +3619,19 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
         <v>6</v>
@@ -3483,10 +3640,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="M71" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3494,13 +3651,13 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M72" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3511,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="L73" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M73" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3522,19 +3679,19 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
         <v>6</v>
@@ -3543,10 +3700,10 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3557,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3577,10 +3734,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
@@ -3589,10 +3746,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="M76" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3600,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="L77" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="M77" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3611,10 +3768,10 @@
         <v>14</v>
       </c>
       <c r="L78" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="M78" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3622,28 +3779,28 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="G79" t="s">
         <v>6</v>
       </c>
       <c r="L79" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="M79" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -3651,10 +3808,10 @@
         <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="M80" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3662,19 +3819,19 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
@@ -3683,10 +3840,10 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M81" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -3694,16 +3851,16 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="M82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -3711,19 +3868,19 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -3732,10 +3889,10 @@
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="M83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -3746,10 +3903,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="M84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3757,19 +3914,19 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="G85" t="s">
         <v>6</v>
@@ -3778,10 +3935,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="M85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3789,10 +3946,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="M86" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -3800,10 +3957,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="M87" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -3814,10 +3971,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="M88" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -3825,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -3837,10 +3994,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="M89" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -3848,19 +4005,19 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>6</v>
@@ -3869,10 +4026,10 @@
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="M90" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -3883,10 +4040,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M91" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -3894,13 +4051,13 @@
         <v>47</v>
       </c>
       <c r="K92" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L92" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="M92" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -3908,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
@@ -3920,10 +4077,10 @@
         <v>8</v>
       </c>
       <c r="L93" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="M93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -3931,16 +4088,16 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="M94" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -3948,19 +4105,19 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
@@ -3969,10 +4126,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="M95" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -3980,19 +4137,19 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -4001,10 +4158,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="M96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -4015,10 +4172,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="M97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -4026,13 +4183,13 @@
         <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L98" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="M98" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -4040,19 +4197,19 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>6</v>
@@ -4061,10 +4218,10 @@
         <v>8</v>
       </c>
       <c r="L99" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="M99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -4075,10 +4232,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="M100" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -4086,19 +4243,19 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
@@ -4107,10 +4264,10 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="M101" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -4118,10 +4275,10 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -4130,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="M102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -4141,16 +4298,16 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="M103" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -4158,19 +4315,19 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s">
         <v>6</v>
@@ -4179,10 +4336,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="M104" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -4193,10 +4350,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="M105" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -4204,19 +4361,19 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
@@ -4225,10 +4382,10 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="M106" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -4239,10 +4396,10 @@
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="M107" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -4250,19 +4407,19 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
         <v>6</v>
@@ -4271,10 +4428,10 @@
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="M108" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -4282,28 +4439,28 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G109" t="s">
         <v>6</v>
       </c>
       <c r="L109" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="M109" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -4311,13 +4468,13 @@
         <v>47</v>
       </c>
       <c r="K110" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L110" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="M110" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -4328,10 +4485,10 @@
         <v>8</v>
       </c>
       <c r="L111" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="M111" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -4339,19 +4496,19 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
         <v>6</v>
@@ -4360,10 +4517,10 @@
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="M112" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -4374,10 +4531,10 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="M113" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -4385,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -4397,10 +4554,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="M114" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -4408,16 +4565,16 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="I115" t="s">
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="M115" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -4428,10 +4585,10 @@
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="M116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -4439,19 +4596,19 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s">
         <v>6</v>
@@ -4460,10 +4617,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="M117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -4471,34 +4628,34 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
       </c>
       <c r="L118" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="M118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -4509,10 +4666,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="M119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -4520,19 +4677,19 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G120" t="s">
         <v>6</v>
@@ -4541,10 +4698,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="M120" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -4555,10 +4712,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="M121" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -4569,10 +4726,10 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="M122" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -4580,19 +4737,19 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G123" t="s">
         <v>6</v>
@@ -4601,10 +4758,10 @@
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="M123" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -4621,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="G124" t="s">
         <v>6</v>
@@ -4633,10 +4790,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="M124" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -4647,10 +4804,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="M125" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -4658,19 +4815,19 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
         <v>6</v>
@@ -4679,10 +4836,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="M126" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -4693,10 +4850,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="M127" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -4707,10 +4864,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="M128" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -4718,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -4739,10 +4896,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="M129" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -4750,19 +4907,19 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="G130" t="s">
         <v>6</v>
@@ -4771,10 +4928,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="M130" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -4782,16 +4939,16 @@
         <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I131" t="s">
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="M131" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -4799,19 +4956,19 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G132" t="s">
         <v>6</v>
@@ -4820,10 +4977,10 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="M132" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -4831,10 +4988,10 @@
         <v>14</v>
       </c>
       <c r="L133" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="M133" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -4842,13 +4999,13 @@
         <v>47</v>
       </c>
       <c r="K134" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L134" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="M134" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -4856,19 +5013,19 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G135" t="s">
         <v>6</v>
@@ -4877,10 +5034,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="M135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -4891,10 +5048,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="M136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -4902,19 +5059,19 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G137" t="s">
         <v>6</v>
@@ -4923,10 +5080,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="M137" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -4934,19 +5091,19 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="G138" t="s">
         <v>6</v>
@@ -4955,10 +5112,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="M138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -4969,10 +5126,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="M139" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -4983,10 +5140,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="M140" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -4994,19 +5151,19 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
@@ -5015,10 +5172,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="M141" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -5029,10 +5186,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="M142" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -5040,19 +5197,19 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G143" t="s">
         <v>6</v>
@@ -5061,10 +5218,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="M143" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -5075,10 +5232,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="M144" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -5086,19 +5243,19 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
         <v>6</v>
@@ -5107,10 +5264,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="M145" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -5121,10 +5278,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="M146" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -5132,19 +5289,19 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G147" t="s">
         <v>6</v>
@@ -5153,10 +5310,10 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="M147" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -5164,16 +5321,16 @@
         <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="M148" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -5181,19 +5338,19 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="F149" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="G149" t="s">
         <v>6</v>
@@ -5202,10 +5359,10 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="M149" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -5216,10 +5373,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="M150" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -5227,10 +5384,10 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G151" t="s">
         <v>6</v>
@@ -5239,10 +5396,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="M151" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -5262,10 +5419,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="M152" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -5273,10 +5430,10 @@
         <v>14</v>
       </c>
       <c r="L153" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="M153" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -5284,10 +5441,10 @@
         <v>14</v>
       </c>
       <c r="L154" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="M154" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -5295,10 +5452,10 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -5307,10 +5464,10 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="M155" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -5321,10 +5478,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="M156" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -5332,25 +5489,25 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="I157" t="s">
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="M157" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -5358,10 +5515,10 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G158" t="s">
         <v>6</v>
@@ -5370,10 +5527,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="M158" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -5384,10 +5541,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="M159" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -5395,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="G160" t="s">
         <v>6</v>
@@ -5407,10 +5564,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M160" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -5421,10 +5578,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="M161" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -5432,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="G162" t="s">
         <v>6</v>
@@ -5444,10 +5601,10 @@
         <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="M162" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -5458,10 +5615,10 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="M163" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -5472,10 +5629,10 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="M164" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -5483,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -5495,10 +5652,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="M165" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -5506,10 +5663,10 @@
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -5518,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="M166" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -5532,10 +5689,10 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="M167" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -5543,10 +5700,10 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
@@ -5555,10 +5712,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="M168" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -5569,10 +5726,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="M169" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -5580,25 +5737,25 @@
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
       </c>
       <c r="H170" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="I170" t="s">
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="M170" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -5609,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="M171" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -5620,10 +5777,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="M172" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -5631,10 +5788,10 @@
         <v>14</v>
       </c>
       <c r="L173" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="M173" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -5645,10 +5802,10 @@
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="M174" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -5668,10 +5825,10 @@
         <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="M175" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -5679,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G176" t="s">
         <v>6</v>
@@ -5691,10 +5848,10 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="M176" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
@@ -5705,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="M177" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -5716,10 +5873,10 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G178" t="s">
         <v>6</v>
@@ -5728,10 +5885,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="M178" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -5742,10 +5899,10 @@
         <v>8</v>
       </c>
       <c r="L179" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="M179" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -5753,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="G180" t="s">
         <v>6</v>
@@ -5765,10 +5922,10 @@
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="M180" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -5776,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -5788,10 +5945,10 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="M181" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -5799,16 +5956,16 @@
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I182" t="s">
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="M182" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -5816,19 +5973,19 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C183" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="L183" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="M183" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -5839,13 +5996,13 @@
         <v>8</v>
       </c>
       <c r="K184" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L184" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="M184" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -5853,10 +6010,10 @@
         <v>14</v>
       </c>
       <c r="L185" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="M185" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -5864,10 +6021,10 @@
         <v>14</v>
       </c>
       <c r="L186" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="M186" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -5875,10 +6032,10 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -5887,10 +6044,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="M187" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -5898,10 +6055,10 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G188" t="s">
         <v>6</v>
@@ -5910,10 +6067,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="M188" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -5924,10 +6081,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="M189" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -5935,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G190" t="s">
         <v>6</v>
@@ -5947,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="M190" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -5958,16 +6115,16 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="I191" t="s">
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="M191" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -5975,10 +6132,10 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G192" t="s">
         <v>6</v>
@@ -5987,10 +6144,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="M192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -6001,10 +6158,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="M193" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -6012,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G194" t="s">
         <v>6</v>
@@ -6024,10 +6181,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="M194" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -6035,10 +6192,10 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -6047,10 +6204,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="M195" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -6058,10 +6215,10 @@
         <v>14</v>
       </c>
       <c r="L196" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="M196" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -6072,13 +6229,13 @@
         <v>8</v>
       </c>
       <c r="K197" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="L197" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="M197" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -6098,10 +6255,10 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="M198" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -6112,10 +6269,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="M199" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -6123,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
@@ -6135,10 +6292,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="M200" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -6146,16 +6303,16 @@
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="I201" t="s">
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="M201" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -6166,10 +6323,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="M202" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -6177,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -6189,10 +6346,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="M203" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -6200,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G204" t="s">
         <v>6</v>
@@ -6212,10 +6369,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="M204" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -6226,10 +6383,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="M205" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -6237,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G206" t="s">
         <v>6</v>
@@ -6249,10 +6406,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="M206" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -6263,10 +6420,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="M207" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -6274,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="G208" t="s">
         <v>6</v>
@@ -6286,10 +6443,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="M208" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -6297,10 +6454,10 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C209" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -6309,10 +6466,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="M209" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -6320,16 +6477,16 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="I210" t="s">
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="M210" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -6337,10 +6494,10 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -6349,10 +6506,10 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="M211" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -6363,10 +6520,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="M212" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -6374,10 +6531,10 @@
         <v>1</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
@@ -6386,10 +6543,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="M213" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -6400,10 +6557,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="M214" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -6411,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G215" t="s">
         <v>6</v>
@@ -6423,10 +6580,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="M215" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -6434,10 +6591,10 @@
         <v>14</v>
       </c>
       <c r="L216" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="M216" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -6445,10 +6602,10 @@
         <v>14</v>
       </c>
       <c r="L217" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="M217" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -6456,10 +6613,10 @@
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G218" t="s">
         <v>6</v>
@@ -6468,10 +6625,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="M218" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -6482,10 +6639,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="M219" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -6493,10 +6650,10 @@
         <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F220" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>6</v>
@@ -6505,10 +6662,10 @@
         <v>8</v>
       </c>
       <c r="L220" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="M220" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -6519,10 +6676,10 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="M221" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -6530,25 +6687,25 @@
         <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G222" t="s">
         <v>6</v>
       </c>
       <c r="H222" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="I222" t="s">
         <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="M222" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -6556,10 +6713,10 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
@@ -6568,10 +6725,10 @@
         <v>8</v>
       </c>
       <c r="L223" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="M223" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -6582,10 +6739,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="M224" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -6593,10 +6750,10 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -6605,10 +6762,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="M225" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -6619,10 +6776,10 @@
         <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="M226" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -6633,10 +6790,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="M227" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -6644,10 +6801,10 @@
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -6656,10 +6813,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="M228" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -6667,16 +6824,16 @@
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>7</v>
+        <v>399</v>
       </c>
       <c r="I229" t="s">
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="M229" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -6684,10 +6841,10 @@
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -6696,10 +6853,10 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="M230" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -6707,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F231" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="G231" t="s">
         <v>6</v>
@@ -6719,10 +6876,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="M231" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -6730,16 +6887,16 @@
         <v>3</v>
       </c>
       <c r="H232" t="s">
-        <v>7</v>
+        <v>404</v>
       </c>
       <c r="I232" t="s">
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="M232" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -6747,10 +6904,10 @@
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G233" t="s">
         <v>6</v>
@@ -6759,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="M233" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -6773,10 +6930,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="M234" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -6784,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="G235" t="s">
         <v>6</v>
@@ -6796,10 +6953,10 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="M235" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -6807,10 +6964,10 @@
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -6819,10 +6976,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="M236" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -6833,10 +6990,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="M237" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
@@ -6844,10 +7001,10 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C238" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -6856,10 +7013,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="M238" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -6867,16 +7024,16 @@
         <v>3</v>
       </c>
       <c r="H239" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="I239" t="s">
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="M239" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -6887,10 +7044,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="M240" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -6898,10 +7055,10 @@
         <v>1</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -6910,10 +7067,10 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="M241" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -6921,10 +7078,10 @@
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="F242" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="G242" t="s">
         <v>6</v>
@@ -6933,10 +7090,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="M242" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -6944,16 +7101,16 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="I243" t="s">
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="M243" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -6961,10 +7118,10 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F244" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G244" t="s">
         <v>6</v>
@@ -6973,10 +7130,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="M244" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -6987,10 +7144,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="M245" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -6998,13 +7155,13 @@
         <v>28</v>
       </c>
       <c r="I246" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="L246" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="M246" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -7015,10 +7172,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="M247" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -7026,10 +7183,10 @@
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="F248" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="G248" t="s">
         <v>6</v>
@@ -7038,10 +7195,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="M248" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
@@ -7052,10 +7209,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="M249" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
@@ -7063,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F250" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="G250" t="s">
         <v>6</v>
@@ -7075,10 +7232,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="M250" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
@@ -7086,10 +7243,10 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="C251" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -7098,10 +7255,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="M251" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -7109,16 +7266,16 @@
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I252" t="s">
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="M252" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
@@ -7138,10 +7295,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="M253" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
@@ -7152,10 +7309,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="M254" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
@@ -7163,10 +7320,10 @@
         <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -7175,10 +7332,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="M255" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
@@ -7189,10 +7346,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="M256" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
@@ -7200,19 +7357,19 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
       </c>
       <c r="L257" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="M257" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -7220,10 +7377,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="M258" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
@@ -7234,10 +7391,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="M259" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -7245,10 +7402,10 @@
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G260" t="s">
         <v>6</v>
@@ -7257,10 +7414,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="M260" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
@@ -7271,10 +7428,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="M261" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -7282,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="E262" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F262" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G262" t="s">
         <v>6</v>
@@ -7294,10 +7451,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="M262" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
@@ -7305,16 +7462,16 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="I263" t="s">
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="M263" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
@@ -7325,10 +7482,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="M264" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
@@ -7336,10 +7493,10 @@
         <v>1</v>
       </c>
       <c r="E265" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F265" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G265" t="s">
         <v>6</v>
@@ -7348,10 +7505,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="M265" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
@@ -7359,10 +7516,10 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C266" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -7371,10 +7528,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="M266" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -7385,10 +7542,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="M267" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
@@ -7396,13 +7553,13 @@
         <v>28</v>
       </c>
       <c r="I268" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="L268" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="M268" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
@@ -7413,10 +7570,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="M269" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
@@ -7424,10 +7581,10 @@
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C270" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -7436,10 +7593,10 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="M270" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
@@ -7450,10 +7607,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="M271" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -7461,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -7473,10 +7630,10 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="M272" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
@@ -7484,10 +7641,10 @@
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="F273" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G273" t="s">
         <v>6</v>
@@ -7496,10 +7653,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="M273" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -7507,16 +7664,16 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="I274" t="s">
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="M274" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
@@ -7527,10 +7684,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="M275" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
@@ -7541,10 +7698,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="M276" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -7552,10 +7709,10 @@
         <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F277" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G277" t="s">
         <v>6</v>
@@ -7564,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="M277" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
@@ -7578,10 +7735,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="M278" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
@@ -7589,13 +7746,13 @@
         <v>28</v>
       </c>
       <c r="I279" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="L279" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="M279" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
@@ -7606,10 +7763,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="M280" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -7617,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F281" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G281" t="s">
         <v>6</v>
@@ -7629,10 +7786,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="M281" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
@@ -7643,10 +7800,10 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="M282" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
@@ -7654,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="E283" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F283" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G283" t="s">
         <v>6</v>
@@ -7666,10 +7823,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="M283" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
@@ -7677,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C284" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
@@ -7689,10 +7846,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="M284" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
@@ -7703,10 +7860,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="M285" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
@@ -7714,16 +7871,16 @@
         <v>3</v>
       </c>
       <c r="H286" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I286" t="s">
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="M286" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
@@ -7731,10 +7888,10 @@
         <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C287" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -7743,10 +7900,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="M287" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
@@ -7757,10 +7914,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="M288" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -7771,10 +7928,10 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="M289" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
@@ -7785,10 +7942,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="M290" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -7796,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C291" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -7808,10 +7965,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="M291" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -7822,10 +7979,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="M292" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -7833,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C293" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -7845,10 +8002,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="M293" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
@@ -7856,10 +8013,10 @@
         <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F294" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G294" t="s">
         <v>6</v>
@@ -7868,10 +8025,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="M294" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
@@ -7879,16 +8036,16 @@
         <v>3</v>
       </c>
       <c r="H295" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="I295" t="s">
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="M295" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -7896,10 +8053,10 @@
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F296" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G296" t="s">
         <v>6</v>
@@ -7908,10 +8065,10 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="M296" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -7919,13 +8076,13 @@
         <v>28</v>
       </c>
       <c r="I297" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="L297" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="M297" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
@@ -7936,10 +8093,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="M298" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
@@ -7950,10 +8107,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="M299" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
@@ -7964,10 +8121,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="M300" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7978,10 +8135,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="M301" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
@@ -7989,10 +8146,10 @@
         <v>1</v>
       </c>
       <c r="E302" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F302" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G302" t="s">
         <v>6</v>
@@ -8001,10 +8158,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="M302" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -8012,10 +8169,10 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C303" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -8024,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="M303" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
@@ -8038,10 +8195,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="M304" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
@@ -8049,10 +8206,10 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C305" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -8061,10 +8218,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="M305" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -8075,10 +8232,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="M306" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -8086,10 +8243,10 @@
         <v>1</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C307" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -8098,10 +8255,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="M307" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
@@ -8109,10 +8266,10 @@
         <v>1</v>
       </c>
       <c r="E308" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F308" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G308" t="s">
         <v>6</v>
@@ -8121,24 +8278,21 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="M308" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
-      <c r="I309" t="s">
-        <v>8</v>
-      </c>
       <c r="L309" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="M309" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
@@ -8146,81 +8300,63 @@
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
       <c r="F310" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
       <c r="G310" t="s">
-        <v>6</v>
-      </c>
-      <c r="I310" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L310" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="M310" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>14</v>
       </c>
-      <c r="I311" t="s">
-        <v>8</v>
-      </c>
       <c r="L311" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="M311" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>3</v>
-      </c>
-      <c r="H312" t="s">
-        <v>7</v>
-      </c>
-      <c r="I312" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L312" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="M312" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
-      <c r="I313" t="s">
-        <v>8</v>
-      </c>
       <c r="L313" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="M313" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>14</v>
       </c>
-      <c r="I314" t="s">
-        <v>8</v>
-      </c>
       <c r="L314" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="M314" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
@@ -8228,36 +8364,30 @@
         <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
       <c r="F315" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
       <c r="G315" t="s">
-        <v>6</v>
-      </c>
-      <c r="I315" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L315" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="M315" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>14</v>
       </c>
-      <c r="I316" t="s">
-        <v>8</v>
-      </c>
       <c r="L316" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="M316" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
@@ -8265,22 +8395,19 @@
         <v>1</v>
       </c>
       <c r="E317" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
       <c r="F317" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
       <c r="G317" t="s">
-        <v>6</v>
-      </c>
-      <c r="I317" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L317" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="M317" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
@@ -8288,36 +8415,30 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>566</v>
       </c>
       <c r="C318" t="s">
-        <v>15</v>
+        <v>566</v>
       </c>
       <c r="D318" t="s">
-        <v>3</v>
-      </c>
-      <c r="I318" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L318" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="M318" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14</v>
       </c>
-      <c r="I319" t="s">
-        <v>8</v>
-      </c>
       <c r="L319" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M319" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
@@ -8325,36 +8446,30 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>15</v>
+        <v>566</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>566</v>
       </c>
       <c r="D320" t="s">
-        <v>3</v>
-      </c>
-      <c r="I320" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L320" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="M320" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
-      <c r="I321" t="s">
-        <v>8</v>
-      </c>
       <c r="L321" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="M321" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
@@ -8362,10 +8477,10 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C322" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
@@ -8374,10 +8489,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="M322" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
@@ -8388,10 +8503,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="M323" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
@@ -8399,10 +8514,10 @@
         <v>1</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C324" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -8411,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="M324" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
@@ -8422,10 +8537,10 @@
         <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F325" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G325" t="s">
         <v>6</v>
@@ -8434,10 +8549,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="M325" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
@@ -8445,16 +8560,16 @@
         <v>3</v>
       </c>
       <c r="H326" t="s">
-        <v>7</v>
+        <v>540</v>
       </c>
       <c r="I326" t="s">
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="M326" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -8462,10 +8577,10 @@
         <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F327" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G327" t="s">
         <v>6</v>
@@ -8474,10 +8589,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="M327" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -8488,10 +8603,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="M328" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -8502,10 +8617,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="M329" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
@@ -8513,19 +8628,19 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C330" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
       </c>
       <c r="E330" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F330" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G330" t="s">
         <v>6</v>
@@ -8534,10 +8649,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="M330" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
@@ -8545,19 +8660,19 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C331" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F331" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G331" t="s">
         <v>6</v>
@@ -8566,10 +8681,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="M331" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
@@ -8577,10 +8692,10 @@
         <v>14</v>
       </c>
       <c r="L332" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="M332" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -8591,10 +8706,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="M333" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
@@ -8602,16 +8717,16 @@
         <v>3</v>
       </c>
       <c r="H334" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="I334" t="s">
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="M334" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
@@ -8619,19 +8734,19 @@
         <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="C335" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F335" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G335" t="s">
         <v>6</v>
@@ -8640,10 +8755,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="M335" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
@@ -8654,10 +8769,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="M336" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
@@ -8665,20 +8780,20 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
+        <v>79</v>
+      </c>
+      <c r="C337" t="s">
+        <v>79</v>
+      </c>
+      <c r="D337" t="s">
+        <v>3</v>
+      </c>
+      <c r="E337" t="s">
         <v>15</v>
       </c>
-      <c r="C337" t="s">
+      <c r="F337" t="s">
         <v>15</v>
       </c>
-      <c r="D337" t="s">
-        <v>3</v>
-      </c>
-      <c r="E337" t="s">
-        <v>16</v>
-      </c>
-      <c r="F337" t="s">
-        <v>16</v>
-      </c>
       <c r="G337" t="s">
         <v>6</v>
       </c>
@@ -8686,10 +8801,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="M337" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
@@ -8697,10 +8812,10 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C338" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -8709,10 +8824,10 @@
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="M338" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
@@ -8723,10 +8838,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="M339" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
@@ -8737,10 +8852,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="M340" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
@@ -8748,19 +8863,19 @@
         <v>1</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C341" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
       </c>
       <c r="E341" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F341" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G341" t="s">
         <v>6</v>
@@ -8769,10 +8884,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="M341" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
@@ -8783,26 +8898,13 @@
         <v>8</v>
       </c>
       <c r="L342" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="M342" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>